--- a/web_ces/indicadores/SFE-GIRA_out.xlsx
+++ b/web_ces/indicadores/SFE-GIRA_out.xlsx
@@ -27813,13 +27813,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6661C9E6-8F5F-4E1F-A8E0-0392D5FB9ED7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545C6DC8-467C-43E3-B7B9-CE7DC37CC2AF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D4DE8F4-66F7-4173-A6FD-E4580ADB5796}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1254EC1B-EC64-499E-B0CC-6BFC035B7457}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{935657FE-0AFF-4E60-A0A6-829BC5308CC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F6B2673-7862-4A5C-B859-9854AC8C9B3C}"/>
 </file>